--- a/codebook_kimelodie.xlsx
+++ b/codebook_kimelodie.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Anton\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Anton\Desktop\uni\Master\Projektarbeit\Supplement\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5709288B-A1C3-4BB1-A7A5-716465A5DCB6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F7296AB2-4D8A-4DB9-A94A-BE26290AA6A1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="17115" windowHeight="10755" tabRatio="212" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="204" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="257" uniqueCount="59">
   <si>
     <t>Variable</t>
   </si>
@@ -139,12 +139,6 @@
     <t>HK* / KH*</t>
   </si>
   <si>
-    <t>definitly human</t>
-  </si>
-  <si>
-    <t>definitly machine</t>
-  </si>
-  <si>
     <t>Gender</t>
   </si>
   <si>
@@ -170,13 +164,46 @@
   </si>
   <si>
     <t>More than 10 years.</t>
+  </si>
+  <si>
+    <t>Codebook: The Performance of Creative AI Systems</t>
+  </si>
+  <si>
+    <t>ID and Consent</t>
+  </si>
+  <si>
+    <t>Rating Items; Note: Every Melody was rated with the same four items (starting with "F"), the appendix (e.g. "01") refers to the specific rating variable</t>
+  </si>
+  <si>
+    <t>Decision items; Note: AI compositions</t>
+  </si>
+  <si>
+    <t>definitly human [1]</t>
+  </si>
+  <si>
+    <t>[4]</t>
+  </si>
+  <si>
+    <t>[5]</t>
+  </si>
+  <si>
+    <t>[6]</t>
+  </si>
+  <si>
+    <t>[7]</t>
+  </si>
+  <si>
+    <t>definitly machine [8]</t>
+  </si>
+  <si>
+    <t>Sociodemographic variables</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -197,13 +224,37 @@
       <family val="2"/>
       <charset val="1"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="2">
@@ -227,7 +278,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -247,6 +298,18 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -561,11 +624,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F41"/>
+  <dimension ref="A1:F59"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <pane ySplit="4" topLeftCell="A57" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A50" sqref="A50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.35"/>
@@ -579,117 +642,69 @@
     <col min="7" max="1024" width="11.46484375"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="13.15" x14ac:dyDescent="0.4">
-      <c r="A1" s="3" t="s">
+    <row r="1" spans="1:6" s="15" customFormat="1" ht="15" x14ac:dyDescent="0.4">
+      <c r="A1" s="13" t="s">
+        <v>48</v>
+      </c>
+      <c r="B1" s="14"/>
+    </row>
+    <row r="3" spans="1:6" s="12" customFormat="1" ht="13.5" x14ac:dyDescent="0.35">
+      <c r="A3" s="16" t="s">
+        <v>49</v>
+      </c>
+      <c r="B3" s="11"/>
+    </row>
+    <row r="4" spans="1:6" ht="13.15" x14ac:dyDescent="0.4">
+      <c r="A4" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="7" t="s">
+      <c r="B4" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C4" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D4" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="E4" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="F4" s="3" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A2" s="4" t="s">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A5" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="8" t="s">
+      <c r="B5" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="C2" s="5"/>
-      <c r="D2" s="4"/>
-      <c r="E2" s="4" t="s">
+      <c r="C5" s="5"/>
+      <c r="D5" s="4"/>
+      <c r="E5" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="F2" s="4" t="s">
+      <c r="F5" s="4" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="25.5" x14ac:dyDescent="0.35">
-      <c r="A3" s="4" t="s">
+    <row r="6" spans="1:6" ht="25.5" x14ac:dyDescent="0.35">
+      <c r="A6" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="B3" s="8" t="s">
+      <c r="B6" s="8" t="s">
         <v>21</v>
-      </c>
-      <c r="C3" s="5">
-        <v>1</v>
-      </c>
-      <c r="D3" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="E3" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="F3" s="4" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A4" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="B4" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="C4" s="2">
-        <v>2</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A5" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="B5" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="C5" s="2">
-        <v>-9</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F5" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A6" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="B6" s="8" t="s">
-        <v>25</v>
       </c>
       <c r="C6" s="5">
         <v>1</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="F6" s="4" t="s">
         <v>13</v>
@@ -697,19 +712,19 @@
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A7" s="6" t="s">
-        <v>26</v>
+        <v>10</v>
       </c>
       <c r="B7" s="9" t="s">
-        <v>25</v>
+        <v>11</v>
       </c>
       <c r="C7" s="2">
         <v>2</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="F7" s="1" t="s">
         <v>13</v>
@@ -717,90 +732,64 @@
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A8" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="B8" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="C8" s="2">
+        <v>-9</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A9" s="6"/>
+      <c r="B9" s="9"/>
+      <c r="C9" s="2"/>
+      <c r="D9" s="1"/>
+      <c r="E9" s="1"/>
+      <c r="F9" s="1"/>
+    </row>
+    <row r="10" spans="1:6" s="12" customFormat="1" ht="13.5" x14ac:dyDescent="0.35">
+      <c r="A10" s="16" t="s">
+        <v>50</v>
+      </c>
+      <c r="B10" s="11"/>
+    </row>
+    <row r="11" spans="1:6" ht="13.15" x14ac:dyDescent="0.4">
+      <c r="A11" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B11" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E11" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F11" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A12" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="B8" s="9" t="s">
+      <c r="B12" s="8" t="s">
         <v>25</v>
-      </c>
-      <c r="C8" s="2">
-        <v>3</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="E8" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="F8" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A9" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="B9" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="C9" s="2">
-        <v>4</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="E9" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="F9" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A10" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="B10" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="C10" s="2">
-        <v>5</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="E10" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="F10" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A11" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="B11" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="C11" s="2">
-        <v>-9</v>
-      </c>
-      <c r="D11" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="E11" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="F11" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" ht="25.5" x14ac:dyDescent="0.35">
-      <c r="A12" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="B12" s="8" t="s">
-        <v>27</v>
       </c>
       <c r="C12" s="5">
         <v>1</v>
@@ -815,12 +804,12 @@
         <v>13</v>
       </c>
     </row>
-    <row r="13" spans="1:6" ht="25.5" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A13" s="6" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="B13" s="9" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="C13" s="2">
         <v>2</v>
@@ -835,12 +824,12 @@
         <v>13</v>
       </c>
     </row>
-    <row r="14" spans="1:6" ht="25.5" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A14" s="6" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="B14" s="9" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="C14" s="2">
         <v>3</v>
@@ -855,12 +844,12 @@
         <v>13</v>
       </c>
     </row>
-    <row r="15" spans="1:6" ht="25.5" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A15" s="6" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="B15" s="9" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="C15" s="2">
         <v>4</v>
@@ -875,12 +864,12 @@
         <v>13</v>
       </c>
     </row>
-    <row r="16" spans="1:6" ht="25.5" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A16" s="6" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="B16" s="9" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="C16" s="2">
         <v>5</v>
@@ -895,12 +884,12 @@
         <v>13</v>
       </c>
     </row>
-    <row r="17" spans="1:6" ht="25.5" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A17" s="6" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="B17" s="9" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="C17" s="2">
         <v>-9</v>
@@ -915,12 +904,12 @@
         <v>13</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:6" ht="25.5" x14ac:dyDescent="0.35">
       <c r="A18" s="4" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="B18" s="8" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="C18" s="5">
         <v>1</v>
@@ -935,12 +924,12 @@
         <v>13</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:6" ht="25.5" x14ac:dyDescent="0.35">
       <c r="A19" s="6" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="B19" s="9" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="C19" s="2">
         <v>2</v>
@@ -955,12 +944,12 @@
         <v>13</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:6" ht="25.5" x14ac:dyDescent="0.35">
       <c r="A20" s="6" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="B20" s="9" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="C20" s="2">
         <v>3</v>
@@ -975,12 +964,12 @@
         <v>13</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:6" ht="25.5" x14ac:dyDescent="0.35">
       <c r="A21" s="6" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="B21" s="9" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="C21" s="2">
         <v>4</v>
@@ -995,12 +984,12 @@
         <v>13</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:6" ht="25.5" x14ac:dyDescent="0.35">
       <c r="A22" s="6" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="B22" s="9" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="C22" s="2">
         <v>5</v>
@@ -1015,12 +1004,12 @@
         <v>13</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:6" ht="25.5" x14ac:dyDescent="0.35">
       <c r="A23" s="6" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="B23" s="9" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="C23" s="2">
         <v>-9</v>
@@ -1037,10 +1026,10 @@
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A24" s="4" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B24" s="8" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="C24" s="5">
         <v>1</v>
@@ -1057,10 +1046,10 @@
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A25" s="6" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B25" s="9" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="C25" s="2">
         <v>2</v>
@@ -1077,10 +1066,10 @@
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A26" s="6" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B26" s="9" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="C26" s="2">
         <v>3</v>
@@ -1097,10 +1086,10 @@
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A27" s="6" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B27" s="9" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="C27" s="2">
         <v>4</v>
@@ -1117,10 +1106,10 @@
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A28" s="6" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B28" s="9" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="C28" s="2">
         <v>5</v>
@@ -1137,10 +1126,10 @@
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A29" s="6" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B29" s="9" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="C29" s="2">
         <v>-9</v>
@@ -1155,18 +1144,18 @@
         <v>13</v>
       </c>
     </row>
-    <row r="30" spans="1:6" ht="25.5" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A30" s="4" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="B30" s="8" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C30" s="5">
         <v>1</v>
       </c>
       <c r="D30" s="4" t="s">
-        <v>39</v>
+        <v>30</v>
       </c>
       <c r="E30" s="4" t="s">
         <v>14</v>
@@ -1175,18 +1164,18 @@
         <v>13</v>
       </c>
     </row>
-    <row r="31" spans="1:6" ht="25.5" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A31" s="6" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="B31" s="9" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C31" s="2">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>40</v>
+        <v>15</v>
       </c>
       <c r="E31" s="1" t="s">
         <v>14</v>
@@ -1195,18 +1184,18 @@
         <v>13</v>
       </c>
     </row>
-    <row r="32" spans="1:6" ht="25.5" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A32" s="6" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="B32" s="9" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C32" s="2">
-        <v>-9</v>
+        <v>3</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>32</v>
+        <v>16</v>
       </c>
       <c r="E32" s="1" t="s">
         <v>14</v>
@@ -1216,40 +1205,40 @@
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A33" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="B33" s="8" t="s">
-        <v>41</v>
-      </c>
-      <c r="C33" s="5">
-        <v>1</v>
-      </c>
-      <c r="D33" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="E33" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="F33" s="4" t="s">
+      <c r="A33" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="B33" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="C33" s="2">
+        <v>4</v>
+      </c>
+      <c r="D33" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E33" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F33" s="1" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A34" s="6" t="s">
-        <v>18</v>
+        <v>35</v>
       </c>
       <c r="B34" s="9" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="C34" s="2">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>43</v>
+        <v>31</v>
       </c>
       <c r="E34" s="1" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="F34" s="1" t="s">
         <v>13</v>
@@ -1257,137 +1246,437 @@
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A35" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="B35" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="C35" s="2">
+        <v>-9</v>
+      </c>
+      <c r="D35" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="E35" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F35" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A36" s="6"/>
+      <c r="B36" s="9"/>
+      <c r="C36" s="2"/>
+      <c r="D36" s="1"/>
+      <c r="E36" s="1"/>
+      <c r="F36" s="1"/>
+    </row>
+    <row r="37" spans="1:6" s="12" customFormat="1" ht="13.5" x14ac:dyDescent="0.35">
+      <c r="A37" s="16" t="s">
+        <v>51</v>
+      </c>
+      <c r="B37" s="11"/>
+    </row>
+    <row r="38" spans="1:6" ht="13.15" x14ac:dyDescent="0.4">
+      <c r="A38" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B38" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="C38" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D38" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E38" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F38" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" ht="25.5" x14ac:dyDescent="0.35">
+      <c r="A39" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="B39" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="C39" s="5">
+        <v>1</v>
+      </c>
+      <c r="D39" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="E39" s="17" t="s">
+        <v>14</v>
+      </c>
+      <c r="F39" s="17" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" ht="25.5" x14ac:dyDescent="0.35">
+      <c r="A40" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="B40" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="C40" s="18">
+        <v>2</v>
+      </c>
+      <c r="D40" s="17" t="s">
+        <v>16</v>
+      </c>
+      <c r="E40" s="17" t="s">
+        <v>14</v>
+      </c>
+      <c r="F40" s="17" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" ht="25.5" x14ac:dyDescent="0.35">
+      <c r="A41" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="B41" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="C41" s="18">
+        <v>3</v>
+      </c>
+      <c r="D41" s="17" t="s">
+        <v>17</v>
+      </c>
+      <c r="E41" s="17" t="s">
+        <v>14</v>
+      </c>
+      <c r="F41" s="17" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" ht="25.5" x14ac:dyDescent="0.35">
+      <c r="A42" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="B42" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="C42" s="18">
+        <v>4</v>
+      </c>
+      <c r="D42" s="17" t="s">
+        <v>53</v>
+      </c>
+      <c r="E42" s="17" t="s">
+        <v>14</v>
+      </c>
+      <c r="F42" s="17" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" ht="25.5" x14ac:dyDescent="0.35">
+      <c r="A43" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="B43" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="C43" s="18">
+        <v>5</v>
+      </c>
+      <c r="D43" s="17" t="s">
+        <v>54</v>
+      </c>
+      <c r="E43" s="17" t="s">
+        <v>14</v>
+      </c>
+      <c r="F43" s="17" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" ht="25.5" x14ac:dyDescent="0.35">
+      <c r="A44" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="B44" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="C44" s="18">
+        <v>6</v>
+      </c>
+      <c r="D44" s="17" t="s">
+        <v>55</v>
+      </c>
+      <c r="E44" s="17" t="s">
+        <v>14</v>
+      </c>
+      <c r="F44" s="17" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" ht="25.5" x14ac:dyDescent="0.35">
+      <c r="A45" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="B45" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="C45" s="18">
+        <v>7</v>
+      </c>
+      <c r="D45" s="17" t="s">
+        <v>56</v>
+      </c>
+      <c r="E45" s="17" t="s">
+        <v>14</v>
+      </c>
+      <c r="F45" s="17" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" ht="25.5" x14ac:dyDescent="0.35">
+      <c r="A46" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="B46" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="C46" s="2">
+        <v>8</v>
+      </c>
+      <c r="D46" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="E46" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F46" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" ht="25.5" x14ac:dyDescent="0.35">
+      <c r="A47" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="B47" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="C47" s="2">
+        <v>-9</v>
+      </c>
+      <c r="D47" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="E47" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F47" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" s="12" customFormat="1" ht="13.5" x14ac:dyDescent="0.35">
+      <c r="A49" s="16" t="s">
+        <v>58</v>
+      </c>
+      <c r="B49" s="11"/>
+    </row>
+    <row r="50" spans="1:6" ht="13.15" x14ac:dyDescent="0.4">
+      <c r="A50" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B50" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="C50" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D50" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E50" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F50" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A51" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="B35" s="9" t="s">
+      <c r="B51" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="C51" s="5">
+        <v>1</v>
+      </c>
+      <c r="D51" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="E51" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="F51" s="4" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A52" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="B52" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="C52" s="2">
+        <v>2</v>
+      </c>
+      <c r="D52" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="C35" s="2">
+      <c r="E52" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F52" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A53" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="B53" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="C53" s="2">
         <v>3</v>
       </c>
-      <c r="D35" s="1" t="s">
+      <c r="D53" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="E53" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F53" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A54" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="B54" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="C54" s="2">
+        <v>-9</v>
+      </c>
+      <c r="D54" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="E54" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F54" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A55" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="B55" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="C55" s="5"/>
+      <c r="D55" s="4"/>
+      <c r="E55" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="F55" s="4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" ht="38.25" x14ac:dyDescent="0.35">
+      <c r="A56" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B56" s="8" t="s">
         <v>44</v>
       </c>
-      <c r="E35" s="1" t="s">
+      <c r="C56" s="5">
+        <v>1</v>
+      </c>
+      <c r="D56" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="E56" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="F35" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A36" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="B36" s="9" t="s">
-        <v>41</v>
-      </c>
-      <c r="C36" s="2">
+      <c r="F56" s="4" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" ht="38.25" x14ac:dyDescent="0.35">
+      <c r="A57" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="B57" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="C57" s="2">
+        <v>2</v>
+      </c>
+      <c r="D57" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="E57" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F57" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" ht="38.25" x14ac:dyDescent="0.35">
+      <c r="A58" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="B58" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="C58" s="2">
+        <v>3</v>
+      </c>
+      <c r="D58" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="E58" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F58" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" ht="38.25" x14ac:dyDescent="0.35">
+      <c r="A59" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="B59" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="C59" s="2">
         <v>-9</v>
       </c>
-      <c r="D36" s="1" t="s">
+      <c r="D59" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="E36" s="1" t="s">
+      <c r="E59" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="F36" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A37" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="B37" s="8" t="s">
-        <v>45</v>
-      </c>
-      <c r="C37" s="5"/>
-      <c r="D37" s="4"/>
-      <c r="E37" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="F37" s="4" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="38" spans="1:6" ht="38.25" x14ac:dyDescent="0.35">
-      <c r="A38" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="B38" s="8" t="s">
-        <v>46</v>
-      </c>
-      <c r="C38" s="5">
-        <v>1</v>
-      </c>
-      <c r="D38" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="E38" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="F38" s="4" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="39" spans="1:6" ht="38.25" x14ac:dyDescent="0.35">
-      <c r="A39" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="B39" s="9" t="s">
-        <v>46</v>
-      </c>
-      <c r="C39" s="2">
-        <v>2</v>
-      </c>
-      <c r="D39" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="E39" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F39" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="40" spans="1:6" ht="38.25" x14ac:dyDescent="0.35">
-      <c r="A40" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="B40" s="9" t="s">
-        <v>46</v>
-      </c>
-      <c r="C40" s="2">
-        <v>3</v>
-      </c>
-      <c r="D40" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="E40" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F40" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="41" spans="1:6" ht="38.25" x14ac:dyDescent="0.35">
-      <c r="A41" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="B41" s="9" t="s">
-        <v>46</v>
-      </c>
-      <c r="C41" s="2">
-        <v>-9</v>
-      </c>
-      <c r="D41" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="E41" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F41" s="1" t="s">
+      <c r="F59" s="1" t="s">
         <v>13</v>
       </c>
     </row>

--- a/codebook_kimelodie.xlsx
+++ b/codebook_kimelodie.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Anton\Desktop\uni\Master\Projektarbeit\Supplement\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F7296AB2-4D8A-4DB9-A94A-BE26290AA6A1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{50ECC781-0D4E-4615-BC21-A04C94C921D6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="17115" windowHeight="10755" tabRatio="212" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="257" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="596" uniqueCount="398">
   <si>
     <t>Variable</t>
   </si>
@@ -197,13 +197,1030 @@
   </si>
   <si>
     <t>Sociodemographic variables</t>
+  </si>
+  <si>
+    <t>question</t>
+  </si>
+  <si>
+    <t>melody</t>
+  </si>
+  <si>
+    <t>F101</t>
+  </si>
+  <si>
+    <t>gpt_pp1_1</t>
+  </si>
+  <si>
+    <t>F102</t>
+  </si>
+  <si>
+    <t>F103</t>
+  </si>
+  <si>
+    <t>F104</t>
+  </si>
+  <si>
+    <t>F105</t>
+  </si>
+  <si>
+    <t>F106</t>
+  </si>
+  <si>
+    <t>F107</t>
+  </si>
+  <si>
+    <t>F108</t>
+  </si>
+  <si>
+    <t>F109</t>
+  </si>
+  <si>
+    <t>F110</t>
+  </si>
+  <si>
+    <t>F111</t>
+  </si>
+  <si>
+    <t>F112</t>
+  </si>
+  <si>
+    <t>F113</t>
+  </si>
+  <si>
+    <t>F114</t>
+  </si>
+  <si>
+    <t>F115</t>
+  </si>
+  <si>
+    <t>F116</t>
+  </si>
+  <si>
+    <t>F117</t>
+  </si>
+  <si>
+    <t>F118</t>
+  </si>
+  <si>
+    <t>F119</t>
+  </si>
+  <si>
+    <t>F120</t>
+  </si>
+  <si>
+    <t>F121</t>
+  </si>
+  <si>
+    <t>F122</t>
+  </si>
+  <si>
+    <t>F123</t>
+  </si>
+  <si>
+    <t>F124</t>
+  </si>
+  <si>
+    <t>F125</t>
+  </si>
+  <si>
+    <t>F126</t>
+  </si>
+  <si>
+    <t>F127</t>
+  </si>
+  <si>
+    <t>F128</t>
+  </si>
+  <si>
+    <t>F129</t>
+  </si>
+  <si>
+    <t>F130</t>
+  </si>
+  <si>
+    <t>F131</t>
+  </si>
+  <si>
+    <t>F132</t>
+  </si>
+  <si>
+    <t>F133</t>
+  </si>
+  <si>
+    <t>F134</t>
+  </si>
+  <si>
+    <t>F135</t>
+  </si>
+  <si>
+    <t>F136</t>
+  </si>
+  <si>
+    <t>F137</t>
+  </si>
+  <si>
+    <t>F138</t>
+  </si>
+  <si>
+    <t>F139</t>
+  </si>
+  <si>
+    <t>F140</t>
+  </si>
+  <si>
+    <t>F141</t>
+  </si>
+  <si>
+    <t>F142</t>
+  </si>
+  <si>
+    <t>F143</t>
+  </si>
+  <si>
+    <t>F144</t>
+  </si>
+  <si>
+    <t>F145</t>
+  </si>
+  <si>
+    <t>F146</t>
+  </si>
+  <si>
+    <t>F147</t>
+  </si>
+  <si>
+    <t>F148</t>
+  </si>
+  <si>
+    <t>F149</t>
+  </si>
+  <si>
+    <t>F150</t>
+  </si>
+  <si>
+    <t>gpt_pp1_2</t>
+  </si>
+  <si>
+    <t>gpt_pp1_3</t>
+  </si>
+  <si>
+    <t>gpt_pp1_4</t>
+  </si>
+  <si>
+    <t>gpt_pp1_5</t>
+  </si>
+  <si>
+    <t>gpt_pp1_6</t>
+  </si>
+  <si>
+    <t>gpt_pp1_7</t>
+  </si>
+  <si>
+    <t>gpt_pp1_8</t>
+  </si>
+  <si>
+    <t>gpt_pp1_9</t>
+  </si>
+  <si>
+    <t>gpt_pp1_10</t>
+  </si>
+  <si>
+    <t>gpt_pp1_11</t>
+  </si>
+  <si>
+    <t>gpt_pp1_12</t>
+  </si>
+  <si>
+    <t>gpt_pp1_13</t>
+  </si>
+  <si>
+    <t>gpt_pp1_14</t>
+  </si>
+  <si>
+    <t>gpt_pp1_15</t>
+  </si>
+  <si>
+    <t>gpt_pp1_16</t>
+  </si>
+  <si>
+    <t>gpt_pp1_17</t>
+  </si>
+  <si>
+    <t>gpt_pp1_18</t>
+  </si>
+  <si>
+    <t>gpt_pp1_19</t>
+  </si>
+  <si>
+    <t>gpt_pp1_20</t>
+  </si>
+  <si>
+    <t>gpt_pp1_21</t>
+  </si>
+  <si>
+    <t>gpt_pp1_22</t>
+  </si>
+  <si>
+    <t>gpt_pp1_23</t>
+  </si>
+  <si>
+    <t>gpt_pp1_24</t>
+  </si>
+  <si>
+    <t>gpt_pp1_25</t>
+  </si>
+  <si>
+    <t>magenta_pp1_1</t>
+  </si>
+  <si>
+    <t>magenta_pp1_2</t>
+  </si>
+  <si>
+    <t>magenta_pp1_3</t>
+  </si>
+  <si>
+    <t>magenta_pp1_4</t>
+  </si>
+  <si>
+    <t>magenta_pp1_5</t>
+  </si>
+  <si>
+    <t>magenta_pp1_6</t>
+  </si>
+  <si>
+    <t>magenta_pp1_7</t>
+  </si>
+  <si>
+    <t>magenta_pp1_8</t>
+  </si>
+  <si>
+    <t>magenta_pp1_9</t>
+  </si>
+  <si>
+    <t>magenta_pp1_10</t>
+  </si>
+  <si>
+    <t>magenta_pp1_11</t>
+  </si>
+  <si>
+    <t>magenta_pp1_12</t>
+  </si>
+  <si>
+    <t>magenta_pp1_13</t>
+  </si>
+  <si>
+    <t>magenta_pp1_14</t>
+  </si>
+  <si>
+    <t>magenta_pp1_15</t>
+  </si>
+  <si>
+    <t>magenta_pp1_16</t>
+  </si>
+  <si>
+    <t>magenta_pp1_17</t>
+  </si>
+  <si>
+    <t>magenta_pp1_18</t>
+  </si>
+  <si>
+    <t>magenta_pp1_19</t>
+  </si>
+  <si>
+    <t>magenta_pp1_20</t>
+  </si>
+  <si>
+    <t>magenta_pp1_21</t>
+  </si>
+  <si>
+    <t>magenta_pp1_22</t>
+  </si>
+  <si>
+    <t>magenta_pp1_23</t>
+  </si>
+  <si>
+    <t>magenta_pp1_24</t>
+  </si>
+  <si>
+    <t>magenta_pp1_25</t>
+  </si>
+  <si>
+    <t>F201</t>
+  </si>
+  <si>
+    <t>F202</t>
+  </si>
+  <si>
+    <t>F203</t>
+  </si>
+  <si>
+    <t>F204</t>
+  </si>
+  <si>
+    <t>F205</t>
+  </si>
+  <si>
+    <t>F206</t>
+  </si>
+  <si>
+    <t>F207</t>
+  </si>
+  <si>
+    <t>F208</t>
+  </si>
+  <si>
+    <t>F209</t>
+  </si>
+  <si>
+    <t>F210</t>
+  </si>
+  <si>
+    <t>F211</t>
+  </si>
+  <si>
+    <t>F212</t>
+  </si>
+  <si>
+    <t>F213</t>
+  </si>
+  <si>
+    <t>F214</t>
+  </si>
+  <si>
+    <t>F215</t>
+  </si>
+  <si>
+    <t>F216</t>
+  </si>
+  <si>
+    <t>F217</t>
+  </si>
+  <si>
+    <t>F218</t>
+  </si>
+  <si>
+    <t>F219</t>
+  </si>
+  <si>
+    <t>F220</t>
+  </si>
+  <si>
+    <t>F221</t>
+  </si>
+  <si>
+    <t>F222</t>
+  </si>
+  <si>
+    <t>F223</t>
+  </si>
+  <si>
+    <t>F224</t>
+  </si>
+  <si>
+    <t>F225</t>
+  </si>
+  <si>
+    <t>F226</t>
+  </si>
+  <si>
+    <t>F227</t>
+  </si>
+  <si>
+    <t>F228</t>
+  </si>
+  <si>
+    <t>F229</t>
+  </si>
+  <si>
+    <t>hum_pp1_1</t>
+  </si>
+  <si>
+    <t>hum_pp1_2</t>
+  </si>
+  <si>
+    <t>hum_pp1_3</t>
+  </si>
+  <si>
+    <t>hum_pp1_4</t>
+  </si>
+  <si>
+    <t>hum_pp1_5</t>
+  </si>
+  <si>
+    <t>hum_pp1_6</t>
+  </si>
+  <si>
+    <t>hum_pp1_7</t>
+  </si>
+  <si>
+    <t>hum_pp1_8</t>
+  </si>
+  <si>
+    <t>hum_pp1_9</t>
+  </si>
+  <si>
+    <t>hum_pp1_10</t>
+  </si>
+  <si>
+    <t>hum_pp1_11</t>
+  </si>
+  <si>
+    <t>hum_pp1_12</t>
+  </si>
+  <si>
+    <t>hum_pp1_13</t>
+  </si>
+  <si>
+    <t>hum_pp1_14</t>
+  </si>
+  <si>
+    <t>hum_pp1_15</t>
+  </si>
+  <si>
+    <t>hum_pp1_16</t>
+  </si>
+  <si>
+    <t>hum_pp1_17</t>
+  </si>
+  <si>
+    <t>hum_pp1_18</t>
+  </si>
+  <si>
+    <t>hum_pp1_19</t>
+  </si>
+  <si>
+    <t>hum_pp1_20</t>
+  </si>
+  <si>
+    <t>hum_pp1_21</t>
+  </si>
+  <si>
+    <t>hum_pp1_22</t>
+  </si>
+  <si>
+    <t>hum_pp1_23</t>
+  </si>
+  <si>
+    <t>hum_pp1_24</t>
+  </si>
+  <si>
+    <t>hum_pp1_25</t>
+  </si>
+  <si>
+    <t>hum_pp1_26</t>
+  </si>
+  <si>
+    <t>hum_pp1_27</t>
+  </si>
+  <si>
+    <t>hum_pp1_28</t>
+  </si>
+  <si>
+    <t>hum_pp1_29</t>
+  </si>
+  <si>
+    <t>F301</t>
+  </si>
+  <si>
+    <t>F302</t>
+  </si>
+  <si>
+    <t>F303</t>
+  </si>
+  <si>
+    <t>F304</t>
+  </si>
+  <si>
+    <t>F305</t>
+  </si>
+  <si>
+    <t>F306</t>
+  </si>
+  <si>
+    <t>F307</t>
+  </si>
+  <si>
+    <t>F308</t>
+  </si>
+  <si>
+    <t>F309</t>
+  </si>
+  <si>
+    <t>F310</t>
+  </si>
+  <si>
+    <t>F311</t>
+  </si>
+  <si>
+    <t>F312</t>
+  </si>
+  <si>
+    <t>F313</t>
+  </si>
+  <si>
+    <t>F314</t>
+  </si>
+  <si>
+    <t>F315</t>
+  </si>
+  <si>
+    <t>F316</t>
+  </si>
+  <si>
+    <t>F317</t>
+  </si>
+  <si>
+    <t>F318</t>
+  </si>
+  <si>
+    <t>F319</t>
+  </si>
+  <si>
+    <t>F320</t>
+  </si>
+  <si>
+    <t>F321</t>
+  </si>
+  <si>
+    <t>F322</t>
+  </si>
+  <si>
+    <t>F323</t>
+  </si>
+  <si>
+    <t>F324</t>
+  </si>
+  <si>
+    <t>F325</t>
+  </si>
+  <si>
+    <t>F326</t>
+  </si>
+  <si>
+    <t>F327</t>
+  </si>
+  <si>
+    <t>F328</t>
+  </si>
+  <si>
+    <t>F329</t>
+  </si>
+  <si>
+    <t>F330</t>
+  </si>
+  <si>
+    <t>F331</t>
+  </si>
+  <si>
+    <t>gpt_pp2_1</t>
+  </si>
+  <si>
+    <t>gpt_pp2_2</t>
+  </si>
+  <si>
+    <t>gpt_pp2_3</t>
+  </si>
+  <si>
+    <t>gpt_pp2_4</t>
+  </si>
+  <si>
+    <t>gpt_pp2_5</t>
+  </si>
+  <si>
+    <t>gpt_pp2_6</t>
+  </si>
+  <si>
+    <t>gpt_pp2_7</t>
+  </si>
+  <si>
+    <t>gpt_pp2_8</t>
+  </si>
+  <si>
+    <t>gpt_pp2_9</t>
+  </si>
+  <si>
+    <t>gpt_pp2_10</t>
+  </si>
+  <si>
+    <t>gpt_pp2_11</t>
+  </si>
+  <si>
+    <t>gpt_pp2_12</t>
+  </si>
+  <si>
+    <t>gpt_pp2_13</t>
+  </si>
+  <si>
+    <t>gpt_pp2_14</t>
+  </si>
+  <si>
+    <t>gpt_pp2_15</t>
+  </si>
+  <si>
+    <t>gpt_pp2_16</t>
+  </si>
+  <si>
+    <t>gpt_pp2_17</t>
+  </si>
+  <si>
+    <t>gpt_pp2_18</t>
+  </si>
+  <si>
+    <t>gpt_pp2_19</t>
+  </si>
+  <si>
+    <t>gpt_pp2_20</t>
+  </si>
+  <si>
+    <t>gpt_pp2_21</t>
+  </si>
+  <si>
+    <t>gpt_pp2_22</t>
+  </si>
+  <si>
+    <t>gpt_pp2_23</t>
+  </si>
+  <si>
+    <t>gpt_pp2_24</t>
+  </si>
+  <si>
+    <t>gpt_pp2_25</t>
+  </si>
+  <si>
+    <t>gpt_pp2_26</t>
+  </si>
+  <si>
+    <t>gpt_pp2_27</t>
+  </si>
+  <si>
+    <t>gpt_pp2_28</t>
+  </si>
+  <si>
+    <t>gpt_pp2_29</t>
+  </si>
+  <si>
+    <t>gpt_pp2_30</t>
+  </si>
+  <si>
+    <t>gpt_pp2_31</t>
+  </si>
+  <si>
+    <t>gpt_pp2_32</t>
+  </si>
+  <si>
+    <t>gpt_pp2_33</t>
+  </si>
+  <si>
+    <t>gpt_pp2_34</t>
+  </si>
+  <si>
+    <t>gpt_pp2_35</t>
+  </si>
+  <si>
+    <t>gpt_pp2_36</t>
+  </si>
+  <si>
+    <t>F332</t>
+  </si>
+  <si>
+    <t>F333</t>
+  </si>
+  <si>
+    <t>F334</t>
+  </si>
+  <si>
+    <t>F335</t>
+  </si>
+  <si>
+    <t>F336</t>
+  </si>
+  <si>
+    <t>F337</t>
+  </si>
+  <si>
+    <t>F338</t>
+  </si>
+  <si>
+    <t>F339</t>
+  </si>
+  <si>
+    <t>F340</t>
+  </si>
+  <si>
+    <t>F341</t>
+  </si>
+  <si>
+    <t>F342</t>
+  </si>
+  <si>
+    <t>F343</t>
+  </si>
+  <si>
+    <t>F344</t>
+  </si>
+  <si>
+    <t>F345</t>
+  </si>
+  <si>
+    <t>F346</t>
+  </si>
+  <si>
+    <t>F347</t>
+  </si>
+  <si>
+    <t>F348</t>
+  </si>
+  <si>
+    <t>F349</t>
+  </si>
+  <si>
+    <t>F350</t>
+  </si>
+  <si>
+    <t>F351</t>
+  </si>
+  <si>
+    <t>F352</t>
+  </si>
+  <si>
+    <t>F353</t>
+  </si>
+  <si>
+    <t>F354</t>
+  </si>
+  <si>
+    <t>F355</t>
+  </si>
+  <si>
+    <t>F356</t>
+  </si>
+  <si>
+    <t>F357</t>
+  </si>
+  <si>
+    <t>F358</t>
+  </si>
+  <si>
+    <t>F359</t>
+  </si>
+  <si>
+    <t>F360</t>
+  </si>
+  <si>
+    <t>F361</t>
+  </si>
+  <si>
+    <t>magenta_pp2_1</t>
+  </si>
+  <si>
+    <t>magenta_pp2_2</t>
+  </si>
+  <si>
+    <t>magenta_pp2_3</t>
+  </si>
+  <si>
+    <t>magenta_pp2_4</t>
+  </si>
+  <si>
+    <t>magenta_pp2_5</t>
+  </si>
+  <si>
+    <t>magenta_pp2_6</t>
+  </si>
+  <si>
+    <t>magenta_pp2_7</t>
+  </si>
+  <si>
+    <t>magenta_pp2_8</t>
+  </si>
+  <si>
+    <t>magenta_pp2_9</t>
+  </si>
+  <si>
+    <t>magenta_pp2_10</t>
+  </si>
+  <si>
+    <t>magenta_pp2_11</t>
+  </si>
+  <si>
+    <t>magenta_pp2_12</t>
+  </si>
+  <si>
+    <t>magenta_pp2_13</t>
+  </si>
+  <si>
+    <t>magenta_pp2_14</t>
+  </si>
+  <si>
+    <t>magenta_pp2_15</t>
+  </si>
+  <si>
+    <t>magenta_pp2_16</t>
+  </si>
+  <si>
+    <t>magenta_pp2_17</t>
+  </si>
+  <si>
+    <t>magenta_pp2_18</t>
+  </si>
+  <si>
+    <t>magenta_pp2_19</t>
+  </si>
+  <si>
+    <t>magenta_pp2_20</t>
+  </si>
+  <si>
+    <t>magenta_pp2_21</t>
+  </si>
+  <si>
+    <t>magenta_pp2_22</t>
+  </si>
+  <si>
+    <t>magenta_pp2_23</t>
+  </si>
+  <si>
+    <t>magenta_pp2_24</t>
+  </si>
+  <si>
+    <t>magenta_pp2_25</t>
+  </si>
+  <si>
+    <t>F401</t>
+  </si>
+  <si>
+    <t>F428</t>
+  </si>
+  <si>
+    <t>F402</t>
+  </si>
+  <si>
+    <t>F403</t>
+  </si>
+  <si>
+    <t>F404</t>
+  </si>
+  <si>
+    <t>F405</t>
+  </si>
+  <si>
+    <t>F406</t>
+  </si>
+  <si>
+    <t>F407</t>
+  </si>
+  <si>
+    <t>F408</t>
+  </si>
+  <si>
+    <t>F409</t>
+  </si>
+  <si>
+    <t>F410</t>
+  </si>
+  <si>
+    <t>F411</t>
+  </si>
+  <si>
+    <t>F412</t>
+  </si>
+  <si>
+    <t>F413</t>
+  </si>
+  <si>
+    <t>F414</t>
+  </si>
+  <si>
+    <t>F415</t>
+  </si>
+  <si>
+    <t>F416</t>
+  </si>
+  <si>
+    <t>F417</t>
+  </si>
+  <si>
+    <t>F418</t>
+  </si>
+  <si>
+    <t>F419</t>
+  </si>
+  <si>
+    <t>F420</t>
+  </si>
+  <si>
+    <t>F421</t>
+  </si>
+  <si>
+    <t>F422</t>
+  </si>
+  <si>
+    <t>F423</t>
+  </si>
+  <si>
+    <t>F424</t>
+  </si>
+  <si>
+    <t>F425</t>
+  </si>
+  <si>
+    <t>F426</t>
+  </si>
+  <si>
+    <t>F427</t>
+  </si>
+  <si>
+    <t>hum_pp2_1</t>
+  </si>
+  <si>
+    <t>hum_pp2_2</t>
+  </si>
+  <si>
+    <t>hum_pp2_3</t>
+  </si>
+  <si>
+    <t>hum_pp2_4</t>
+  </si>
+  <si>
+    <t>hum_pp2_5</t>
+  </si>
+  <si>
+    <t>hum_pp2_6</t>
+  </si>
+  <si>
+    <t>hum_pp2_7</t>
+  </si>
+  <si>
+    <t>hum_pp2_8</t>
+  </si>
+  <si>
+    <t>hum_pp2_9</t>
+  </si>
+  <si>
+    <t>hum_pp2_10</t>
+  </si>
+  <si>
+    <t>hum_pp2_11</t>
+  </si>
+  <si>
+    <t>hum_pp2_12</t>
+  </si>
+  <si>
+    <t>hum_pp2_13</t>
+  </si>
+  <si>
+    <t>hum_pp2_14</t>
+  </si>
+  <si>
+    <t>hum_pp2_15</t>
+  </si>
+  <si>
+    <t>hum_pp2_16</t>
+  </si>
+  <si>
+    <t>hum_pp2_17</t>
+  </si>
+  <si>
+    <t>hum_pp2_18</t>
+  </si>
+  <si>
+    <t>hum_pp2_19</t>
+  </si>
+  <si>
+    <t>hum_pp2_20</t>
+  </si>
+  <si>
+    <t>hum_pp2_21</t>
+  </si>
+  <si>
+    <t>hum_pp2_22</t>
+  </si>
+  <si>
+    <t>hum_pp2_23</t>
+  </si>
+  <si>
+    <t>hum_pp2_24</t>
+  </si>
+  <si>
+    <t>hum_pp2_25</t>
+  </si>
+  <si>
+    <t>hum_pp2_26</t>
+  </si>
+  <si>
+    <t>hum_pp2_27</t>
+  </si>
+  <si>
+    <t>hum_pp2_28</t>
+  </si>
+  <si>
+    <t>Variable "question"; labelling</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -241,6 +1258,17 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="3">
@@ -308,8 +1336,10 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -624,11 +1654,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F59"/>
+  <dimension ref="A1:F230"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="4" topLeftCell="A57" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A50" sqref="A50"/>
+      <selection pane="bottomLeft" activeCell="A62" sqref="A62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.35"/>
@@ -750,13 +1780,13 @@
         <v>13</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A9" s="6"/>
-      <c r="B9" s="9"/>
-      <c r="C9" s="2"/>
-      <c r="D9" s="1"/>
-      <c r="E9" s="1"/>
-      <c r="F9" s="1"/>
+    <row r="9" spans="1:6" ht="13.15" x14ac:dyDescent="0.4">
+      <c r="A9" s="17"/>
+      <c r="B9" s="18"/>
+      <c r="C9" s="3"/>
+      <c r="D9" s="3"/>
+      <c r="E9" s="3"/>
+      <c r="F9" s="3"/>
     </row>
     <row r="10" spans="1:6" s="12" customFormat="1" ht="13.5" x14ac:dyDescent="0.35">
       <c r="A10" s="16" t="s">
@@ -1311,10 +2341,10 @@
       <c r="D39" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="E39" s="17" t="s">
+      <c r="E39" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="F39" s="17" t="s">
+      <c r="F39" s="1" t="s">
         <v>13</v>
       </c>
     </row>
@@ -1325,16 +2355,16 @@
       <c r="B40" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="C40" s="18">
+      <c r="C40" s="2">
         <v>2</v>
       </c>
-      <c r="D40" s="17" t="s">
+      <c r="D40" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="E40" s="17" t="s">
+      <c r="E40" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="F40" s="17" t="s">
+      <c r="F40" s="1" t="s">
         <v>13</v>
       </c>
     </row>
@@ -1345,16 +2375,16 @@
       <c r="B41" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="C41" s="18">
+      <c r="C41" s="2">
         <v>3</v>
       </c>
-      <c r="D41" s="17" t="s">
+      <c r="D41" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="E41" s="17" t="s">
+      <c r="E41" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="F41" s="17" t="s">
+      <c r="F41" s="1" t="s">
         <v>13</v>
       </c>
     </row>
@@ -1365,16 +2395,16 @@
       <c r="B42" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="C42" s="18">
+      <c r="C42" s="2">
         <v>4</v>
       </c>
-      <c r="D42" s="17" t="s">
+      <c r="D42" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="E42" s="17" t="s">
+      <c r="E42" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="F42" s="17" t="s">
+      <c r="F42" s="1" t="s">
         <v>13</v>
       </c>
     </row>
@@ -1385,16 +2415,16 @@
       <c r="B43" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="C43" s="18">
+      <c r="C43" s="2">
         <v>5</v>
       </c>
-      <c r="D43" s="17" t="s">
+      <c r="D43" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="E43" s="17" t="s">
+      <c r="E43" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="F43" s="17" t="s">
+      <c r="F43" s="1" t="s">
         <v>13</v>
       </c>
     </row>
@@ -1405,16 +2435,16 @@
       <c r="B44" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="C44" s="18">
+      <c r="C44" s="2">
         <v>6</v>
       </c>
-      <c r="D44" s="17" t="s">
+      <c r="D44" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="E44" s="17" t="s">
+      <c r="E44" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="F44" s="17" t="s">
+      <c r="F44" s="1" t="s">
         <v>13</v>
       </c>
     </row>
@@ -1425,16 +2455,16 @@
       <c r="B45" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="C45" s="18">
+      <c r="C45" s="2">
         <v>7</v>
       </c>
-      <c r="D45" s="17" t="s">
+      <c r="D45" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="E45" s="17" t="s">
+      <c r="E45" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="F45" s="17" t="s">
+      <c r="F45" s="1" t="s">
         <v>13</v>
       </c>
     </row>
@@ -1680,9 +2710,1376 @@
         <v>13</v>
       </c>
     </row>
+    <row r="61" spans="1:6" s="12" customFormat="1" ht="13.5" x14ac:dyDescent="0.35">
+      <c r="A61" s="16" t="s">
+        <v>397</v>
+      </c>
+      <c r="B61" s="11"/>
+    </row>
+    <row r="62" spans="1:6" ht="13.15" x14ac:dyDescent="0.4">
+      <c r="A62" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="B62" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="C62" s="3"/>
+      <c r="D62" s="3"/>
+      <c r="E62" s="3"/>
+      <c r="F62" s="3"/>
+    </row>
+    <row r="63" spans="1:6" ht="13.15" x14ac:dyDescent="0.4">
+      <c r="A63" s="17" t="s">
+        <v>61</v>
+      </c>
+      <c r="B63" s="18" t="s">
+        <v>62</v>
+      </c>
+      <c r="C63" s="3"/>
+      <c r="D63" s="3"/>
+      <c r="E63" s="3"/>
+      <c r="F63" s="3"/>
+    </row>
+    <row r="64" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A64" t="s">
+        <v>63</v>
+      </c>
+      <c r="B64" s="18" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A65" t="s">
+        <v>64</v>
+      </c>
+      <c r="B65" s="18" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A66" s="17" t="s">
+        <v>65</v>
+      </c>
+      <c r="B66" s="18" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A67" t="s">
+        <v>66</v>
+      </c>
+      <c r="B67" s="18" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A68" t="s">
+        <v>67</v>
+      </c>
+      <c r="B68" s="18" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A69" s="17" t="s">
+        <v>68</v>
+      </c>
+      <c r="B69" s="18" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A70" t="s">
+        <v>69</v>
+      </c>
+      <c r="B70" s="18" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A71" t="s">
+        <v>70</v>
+      </c>
+      <c r="B71" s="18" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A72" s="17" t="s">
+        <v>71</v>
+      </c>
+      <c r="B72" s="18" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A73" t="s">
+        <v>72</v>
+      </c>
+      <c r="B73" s="18" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A74" t="s">
+        <v>73</v>
+      </c>
+      <c r="B74" s="18" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A75" s="17" t="s">
+        <v>74</v>
+      </c>
+      <c r="B75" s="18" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A76" t="s">
+        <v>75</v>
+      </c>
+      <c r="B76" s="18" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A77" t="s">
+        <v>76</v>
+      </c>
+      <c r="B77" s="18" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A78" s="17" t="s">
+        <v>77</v>
+      </c>
+      <c r="B78" s="18" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A79" t="s">
+        <v>78</v>
+      </c>
+      <c r="B79" s="18" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A80" t="s">
+        <v>79</v>
+      </c>
+      <c r="B80" s="18" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A81" s="17" t="s">
+        <v>80</v>
+      </c>
+      <c r="B81" s="18" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A82" t="s">
+        <v>81</v>
+      </c>
+      <c r="B82" s="18" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A83" t="s">
+        <v>82</v>
+      </c>
+      <c r="B83" s="18" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A84" s="17" t="s">
+        <v>83</v>
+      </c>
+      <c r="B84" s="18" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A85" t="s">
+        <v>84</v>
+      </c>
+      <c r="B85" s="18" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A86" t="s">
+        <v>85</v>
+      </c>
+      <c r="B86" s="18" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="87" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A87" s="17" t="s">
+        <v>86</v>
+      </c>
+      <c r="B87" s="18" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="88" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A88" t="s">
+        <v>87</v>
+      </c>
+      <c r="B88" s="10" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="89" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A89" t="s">
+        <v>88</v>
+      </c>
+      <c r="B89" s="10" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="90" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A90" s="17" t="s">
+        <v>89</v>
+      </c>
+      <c r="B90" s="10" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="91" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A91" t="s">
+        <v>90</v>
+      </c>
+      <c r="B91" s="10" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="92" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A92" t="s">
+        <v>91</v>
+      </c>
+      <c r="B92" s="10" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="93" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A93" s="17" t="s">
+        <v>92</v>
+      </c>
+      <c r="B93" s="10" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="94" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A94" t="s">
+        <v>93</v>
+      </c>
+      <c r="B94" s="10" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="95" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A95" t="s">
+        <v>94</v>
+      </c>
+      <c r="B95" s="10" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="96" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A96" s="17" t="s">
+        <v>95</v>
+      </c>
+      <c r="B96" s="10" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="97" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A97" t="s">
+        <v>96</v>
+      </c>
+      <c r="B97" s="10" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="98" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A98" t="s">
+        <v>97</v>
+      </c>
+      <c r="B98" s="10" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="99" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A99" s="17" t="s">
+        <v>98</v>
+      </c>
+      <c r="B99" s="10" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="100" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A100" t="s">
+        <v>99</v>
+      </c>
+      <c r="B100" s="10" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="101" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A101" t="s">
+        <v>100</v>
+      </c>
+      <c r="B101" s="10" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="102" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A102" s="17" t="s">
+        <v>101</v>
+      </c>
+      <c r="B102" s="10" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="103" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A103" t="s">
+        <v>102</v>
+      </c>
+      <c r="B103" s="10" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="104" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A104" t="s">
+        <v>103</v>
+      </c>
+      <c r="B104" s="10" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="105" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A105" s="17" t="s">
+        <v>104</v>
+      </c>
+      <c r="B105" s="10" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="106" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A106" t="s">
+        <v>105</v>
+      </c>
+      <c r="B106" s="10" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="107" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A107" t="s">
+        <v>106</v>
+      </c>
+      <c r="B107" s="10" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="108" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A108" s="17" t="s">
+        <v>107</v>
+      </c>
+      <c r="B108" s="10" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="109" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A109" t="s">
+        <v>108</v>
+      </c>
+      <c r="B109" s="10" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="110" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A110" t="s">
+        <v>109</v>
+      </c>
+      <c r="B110" s="10" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="111" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A111" s="17" t="s">
+        <v>110</v>
+      </c>
+      <c r="B111" s="10" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="112" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A112" t="s">
+        <v>111</v>
+      </c>
+      <c r="B112" s="10" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="113" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A113" t="s">
+        <v>161</v>
+      </c>
+      <c r="B113" s="10" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="114" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A114" t="s">
+        <v>162</v>
+      </c>
+      <c r="B114" s="10" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="115" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A115" t="s">
+        <v>163</v>
+      </c>
+      <c r="B115" s="10" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="116" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A116" t="s">
+        <v>164</v>
+      </c>
+      <c r="B116" s="10" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="117" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A117" t="s">
+        <v>165</v>
+      </c>
+      <c r="B117" s="10" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="118" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A118" t="s">
+        <v>166</v>
+      </c>
+      <c r="B118" s="10" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="119" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A119" t="s">
+        <v>167</v>
+      </c>
+      <c r="B119" s="10" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="120" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A120" t="s">
+        <v>168</v>
+      </c>
+      <c r="B120" s="10" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="121" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A121" t="s">
+        <v>169</v>
+      </c>
+      <c r="B121" s="10" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="122" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A122" t="s">
+        <v>170</v>
+      </c>
+      <c r="B122" s="10" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="123" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A123" t="s">
+        <v>171</v>
+      </c>
+      <c r="B123" s="10" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="124" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A124" t="s">
+        <v>172</v>
+      </c>
+      <c r="B124" s="10" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="125" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A125" t="s">
+        <v>173</v>
+      </c>
+      <c r="B125" s="10" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="126" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A126" t="s">
+        <v>174</v>
+      </c>
+      <c r="B126" s="10" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="127" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A127" t="s">
+        <v>175</v>
+      </c>
+      <c r="B127" s="10" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="128" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A128" t="s">
+        <v>176</v>
+      </c>
+      <c r="B128" s="10" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="129" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A129" t="s">
+        <v>177</v>
+      </c>
+      <c r="B129" s="10" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="130" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A130" t="s">
+        <v>178</v>
+      </c>
+      <c r="B130" s="10" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="131" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A131" t="s">
+        <v>179</v>
+      </c>
+      <c r="B131" s="10" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="132" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A132" t="s">
+        <v>180</v>
+      </c>
+      <c r="B132" s="10" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="133" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A133" t="s">
+        <v>181</v>
+      </c>
+      <c r="B133" s="10" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="134" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A134" t="s">
+        <v>182</v>
+      </c>
+      <c r="B134" s="10" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="135" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A135" t="s">
+        <v>183</v>
+      </c>
+      <c r="B135" s="10" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="136" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A136" t="s">
+        <v>184</v>
+      </c>
+      <c r="B136" s="10" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="137" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A137" t="s">
+        <v>185</v>
+      </c>
+      <c r="B137" s="10" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="138" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A138" t="s">
+        <v>186</v>
+      </c>
+      <c r="B138" s="10" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="139" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A139" t="s">
+        <v>187</v>
+      </c>
+      <c r="B139" s="10" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="140" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A140" t="s">
+        <v>188</v>
+      </c>
+      <c r="B140" s="10" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="141" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A141" t="s">
+        <v>189</v>
+      </c>
+      <c r="B141" s="10" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="142" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A142" t="s">
+        <v>219</v>
+      </c>
+      <c r="B142" s="10" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="143" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A143" t="s">
+        <v>220</v>
+      </c>
+      <c r="B143" s="10" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="144" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A144" t="s">
+        <v>221</v>
+      </c>
+      <c r="B144" s="10" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="145" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A145" t="s">
+        <v>222</v>
+      </c>
+      <c r="B145" s="10" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="146" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A146" t="s">
+        <v>223</v>
+      </c>
+      <c r="B146" s="10" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="147" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A147" t="s">
+        <v>224</v>
+      </c>
+      <c r="B147" s="10" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="148" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A148" t="s">
+        <v>225</v>
+      </c>
+      <c r="B148" s="10" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="149" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A149" t="s">
+        <v>226</v>
+      </c>
+      <c r="B149" s="10" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="150" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A150" t="s">
+        <v>227</v>
+      </c>
+      <c r="B150" s="10" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="151" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A151" t="s">
+        <v>228</v>
+      </c>
+      <c r="B151" s="10" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="152" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A152" t="s">
+        <v>229</v>
+      </c>
+      <c r="B152" s="10" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="153" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A153" t="s">
+        <v>230</v>
+      </c>
+      <c r="B153" s="10" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="154" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A154" t="s">
+        <v>231</v>
+      </c>
+      <c r="B154" s="10" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="155" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A155" t="s">
+        <v>232</v>
+      </c>
+      <c r="B155" s="10" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="156" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A156" t="s">
+        <v>233</v>
+      </c>
+      <c r="B156" s="10" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="157" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A157" t="s">
+        <v>234</v>
+      </c>
+      <c r="B157" s="10" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="158" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A158" t="s">
+        <v>235</v>
+      </c>
+      <c r="B158" s="10" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="159" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A159" t="s">
+        <v>236</v>
+      </c>
+      <c r="B159" s="10" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="160" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A160" t="s">
+        <v>237</v>
+      </c>
+      <c r="B160" s="10" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="161" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A161" t="s">
+        <v>238</v>
+      </c>
+      <c r="B161" s="10" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="162" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A162" t="s">
+        <v>239</v>
+      </c>
+      <c r="B162" s="10" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="163" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A163" t="s">
+        <v>240</v>
+      </c>
+      <c r="B163" s="10" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="164" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A164" t="s">
+        <v>241</v>
+      </c>
+      <c r="B164" s="10" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="165" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A165" t="s">
+        <v>242</v>
+      </c>
+      <c r="B165" s="10" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="166" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A166" t="s">
+        <v>243</v>
+      </c>
+      <c r="B166" s="10" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="167" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A167" t="s">
+        <v>244</v>
+      </c>
+      <c r="B167" s="10" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="168" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A168" t="s">
+        <v>245</v>
+      </c>
+      <c r="B168" s="10" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="169" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A169" t="s">
+        <v>246</v>
+      </c>
+      <c r="B169" s="10" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="170" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A170" t="s">
+        <v>247</v>
+      </c>
+      <c r="B170" s="10" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="171" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A171" t="s">
+        <v>248</v>
+      </c>
+      <c r="B171" s="10" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="172" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A172" t="s">
+        <v>249</v>
+      </c>
+      <c r="B172" s="10" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="173" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A173" t="s">
+        <v>286</v>
+      </c>
+      <c r="B173" s="10" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="174" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A174" t="s">
+        <v>287</v>
+      </c>
+      <c r="B174" s="10" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="175" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A175" t="s">
+        <v>288</v>
+      </c>
+      <c r="B175" s="10" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="176" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A176" t="s">
+        <v>289</v>
+      </c>
+      <c r="B176" s="10" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="177" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A177" t="s">
+        <v>290</v>
+      </c>
+      <c r="B177" s="10" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="178" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A178" t="s">
+        <v>291</v>
+      </c>
+      <c r="B178" s="10" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="179" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A179" t="s">
+        <v>292</v>
+      </c>
+      <c r="B179" s="10" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="180" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A180" t="s">
+        <v>293</v>
+      </c>
+      <c r="B180" s="10" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="181" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A181" t="s">
+        <v>294</v>
+      </c>
+      <c r="B181" s="10" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="182" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A182" t="s">
+        <v>295</v>
+      </c>
+      <c r="B182" s="10" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="183" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A183" t="s">
+        <v>296</v>
+      </c>
+      <c r="B183" s="10" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="184" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A184" t="s">
+        <v>297</v>
+      </c>
+      <c r="B184" s="10" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="185" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A185" t="s">
+        <v>298</v>
+      </c>
+      <c r="B185" s="10" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="186" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A186" t="s">
+        <v>299</v>
+      </c>
+      <c r="B186" s="10" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="187" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A187" t="s">
+        <v>300</v>
+      </c>
+      <c r="B187" s="10" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="188" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A188" t="s">
+        <v>301</v>
+      </c>
+      <c r="B188" s="10" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="189" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A189" t="s">
+        <v>302</v>
+      </c>
+      <c r="B189" s="10" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="190" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A190" t="s">
+        <v>303</v>
+      </c>
+      <c r="B190" s="10" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="191" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A191" t="s">
+        <v>304</v>
+      </c>
+      <c r="B191" s="10" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="192" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A192" t="s">
+        <v>305</v>
+      </c>
+      <c r="B192" s="10" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="193" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A193" t="s">
+        <v>306</v>
+      </c>
+      <c r="B193" s="10" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="194" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A194" t="s">
+        <v>307</v>
+      </c>
+      <c r="B194" s="10" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="195" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A195" t="s">
+        <v>308</v>
+      </c>
+      <c r="B195" s="10" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="196" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A196" t="s">
+        <v>309</v>
+      </c>
+      <c r="B196" s="10" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="197" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A197" t="s">
+        <v>310</v>
+      </c>
+      <c r="B197" s="10" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="198" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A198" t="s">
+        <v>311</v>
+      </c>
+      <c r="B198" s="10" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="199" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A199" t="s">
+        <v>312</v>
+      </c>
+      <c r="B199" s="10" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="200" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A200" t="s">
+        <v>313</v>
+      </c>
+      <c r="B200" s="10" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="201" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A201" t="s">
+        <v>314</v>
+      </c>
+      <c r="B201" s="10" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="202" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A202" t="s">
+        <v>315</v>
+      </c>
+      <c r="B202" s="10" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="203" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A203" t="s">
+        <v>341</v>
+      </c>
+      <c r="B203" s="10" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="204" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A204" t="s">
+        <v>343</v>
+      </c>
+      <c r="B204" s="10" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="205" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A205" t="s">
+        <v>344</v>
+      </c>
+      <c r="B205" s="10" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="206" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A206" t="s">
+        <v>345</v>
+      </c>
+      <c r="B206" s="10" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="207" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A207" t="s">
+        <v>346</v>
+      </c>
+      <c r="B207" s="10" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="208" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A208" t="s">
+        <v>347</v>
+      </c>
+      <c r="B208" s="10" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="209" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A209" t="s">
+        <v>348</v>
+      </c>
+      <c r="B209" s="10" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="210" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A210" t="s">
+        <v>349</v>
+      </c>
+      <c r="B210" s="10" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="211" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A211" t="s">
+        <v>350</v>
+      </c>
+      <c r="B211" s="10" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="212" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A212" t="s">
+        <v>351</v>
+      </c>
+      <c r="B212" s="10" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="213" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A213" t="s">
+        <v>352</v>
+      </c>
+      <c r="B213" s="10" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="214" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A214" t="s">
+        <v>353</v>
+      </c>
+      <c r="B214" s="10" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="215" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A215" t="s">
+        <v>354</v>
+      </c>
+      <c r="B215" s="10" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="216" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A216" t="s">
+        <v>355</v>
+      </c>
+      <c r="B216" s="10" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="217" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A217" t="s">
+        <v>356</v>
+      </c>
+      <c r="B217" s="10" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="218" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A218" t="s">
+        <v>357</v>
+      </c>
+      <c r="B218" s="10" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="219" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A219" t="s">
+        <v>358</v>
+      </c>
+      <c r="B219" s="10" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="220" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A220" t="s">
+        <v>359</v>
+      </c>
+      <c r="B220" s="10" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="221" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A221" t="s">
+        <v>360</v>
+      </c>
+      <c r="B221" s="10" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="222" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A222" t="s">
+        <v>361</v>
+      </c>
+      <c r="B222" s="10" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="223" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A223" t="s">
+        <v>362</v>
+      </c>
+      <c r="B223" s="10" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="224" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A224" t="s">
+        <v>363</v>
+      </c>
+      <c r="B224" s="10" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="225" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A225" t="s">
+        <v>364</v>
+      </c>
+      <c r="B225" s="10" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="226" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A226" t="s">
+        <v>365</v>
+      </c>
+      <c r="B226" s="10" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="227" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A227" t="s">
+        <v>366</v>
+      </c>
+      <c r="B227" s="10" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="228" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A228" t="s">
+        <v>367</v>
+      </c>
+      <c r="B228" s="10" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="229" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A229" t="s">
+        <v>368</v>
+      </c>
+      <c r="B229" s="10" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="230" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A230" t="s">
+        <v>342</v>
+      </c>
+      <c r="B230" s="10" t="s">
+        <v>396</v>
+      </c>
+    </row>
   </sheetData>
+  <phoneticPr fontId="7" type="noConversion"/>
   <pageMargins left="0.5" right="0.5" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup paperSize="0" scale="0" orientation="portrait" usePrinterDefaults="0" useFirstPageNumber="1" horizontalDpi="0" verticalDpi="0" copies="0"/>
+  <pageSetup paperSize="9" orientation="portrait" useFirstPageNumber="1" r:id="rId1"/>
   <headerFooter>
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
